--- a/01 焊盘制作及命名规则/02_焊盘库索引.xlsx
+++ b/01 焊盘制作及命名规则/02_焊盘库索引.xlsx
@@ -1,26 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表贴焊盘" sheetId="1" r:id="rId1"/>
+    <sheet name="通孔焊盘" sheetId="2" r:id="rId2"/>
+    <sheet name="安装孔" sheetId="3" r:id="rId3"/>
+    <sheet name="过孔" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>via40_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>via45_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>via55_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焊盘大小（mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔径大小（mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通过孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA过孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGA过孔（优先）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热过孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>via150_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hole3r7_3r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内径大小（mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外径大小（mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ø=3.2mm 安装孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,19 +127,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +441,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01 焊盘制作及命名规则/02_焊盘库索引.xlsx
+++ b/01 焊盘制作及命名规则/02_焊盘库索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表贴焊盘" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>via40_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>via45_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>via55_25</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BGA过孔（优先）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>散热过孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +64,10 @@
   </si>
   <si>
     <t>ø=3.2mm 安装孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>via40_20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -485,18 +477,18 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>3.7</v>
@@ -505,7 +497,7 @@
         <v>3.2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -516,10 +508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -533,69 +525,55 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>0.4</v>
       </c>
       <c r="C2" s="2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.55000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
